--- a/outputs/room_timetables/C204.xlsx
+++ b/outputs/room_timetables/C204.xlsx
@@ -712,11 +712,8 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="R3" s="3" t="inlineStr">
-        <is>
-          <t>New | Semiconductor Devices | Dr. Pankaj Kumar | C204</t>
-        </is>
-      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
@@ -866,14 +863,13 @@
       <c r="AM6" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="N4:U4"/>
-    <mergeCell ref="R3:W3"/>
+    <mergeCell ref="N3:U3"/>
     <mergeCell ref="N6:U6"/>
-    <mergeCell ref="N3:Q3"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:E5"/>
